--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC836A-61FF-4CDA-BEF1-CD5D9CB9DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{6AFC836A-61FF-4CDA-BEF1-CD5D9CB9DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D42FDF07-9D22-41BA-9E4F-7EE5E4620286}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12420" windowWidth="29040" windowHeight="15840" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
   <si>
     <t>Trial</t>
   </si>
@@ -57,89 +57,161 @@
     <t>NULL</t>
   </si>
   <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
     <t>Pseudo</t>
   </si>
   <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
     <t>MonocL</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,24 +570,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -546,21 +618,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -570,21 +642,21 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -594,21 +666,21 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -618,21 +690,21 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -642,21 +714,21 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -666,21 +738,21 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -690,21 +762,21 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -714,21 +786,21 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -738,21 +810,21 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -762,21 +834,21 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -786,21 +858,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -810,21 +882,21 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -834,21 +906,21 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -858,21 +930,21 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -882,21 +954,21 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -906,21 +978,21 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -930,21 +1002,21 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -954,21 +1026,21 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -978,21 +1050,21 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1002,21 +1074,21 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1026,21 +1098,21 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1050,21 +1122,21 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1074,21 +1146,21 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1098,55 +1170,56 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1155,21 +1228,21 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1178,21 +1251,21 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1201,21 +1274,21 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1224,21 +1297,21 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1247,21 +1320,21 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1270,12 +1343,12 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1284,7 +1357,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1293,21 +1366,21 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1316,21 +1389,21 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1339,21 +1412,21 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1362,21 +1435,21 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1385,21 +1458,21 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1408,21 +1481,21 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1431,21 +1504,21 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1454,21 +1527,21 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1477,21 +1550,21 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1500,21 +1573,21 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1523,21 +1596,21 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1546,21 +1619,21 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1569,21 +1642,21 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1592,21 +1665,21 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1615,432 +1688,438 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>22</v>
@@ -2049,253 +2128,262 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C77" s="3">
         <v>24</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
@@ -2307,267 +2395,267 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="3">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C98" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -2575,754 +2663,752 @@
       <c r="D101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C102" s="3">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="3">
-        <v>1</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>6</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C127" s="3">
         <v>24</v>
       </c>
-      <c r="E123" s="1"/>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>6</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="3">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>6</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="3">
-        <v>1</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>6</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="3">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>6</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="3">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>6</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>6</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C132" s="3">
-        <v>1</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -3335,175 +3421,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B146" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C146" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="3">
-        <v>1</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>7</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>7</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="3">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E149" s="1"/>
       <c r="F149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E150" s="1"/>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
@@ -3511,239 +3596,228 @@
       <c r="D151" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E151" s="1"/>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152">
-        <v>7</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C152" s="3">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>7</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>7</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>7</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" s="3">
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>7</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>7</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" s="3">
         <v>1</v>
@@ -3758,605 +3832,765 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>7</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
+      <c r="E175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="3">
         <v>24</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>8</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>8</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>8</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>8</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>8</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>8</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C179" s="3">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="15">
       <c r="A194">
-        <v>0</v>
-      </c>
-      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C202" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{6AFC836A-61FF-4CDA-BEF1-CD5D9CB9DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D42FDF07-9D22-41BA-9E4F-7EE5E4620286}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11854ACE-4C8A-442D-B763-8C25F742480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12420" windowWidth="29040" windowHeight="15840" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -205,13 +205,22 @@
   </si>
   <si>
     <t>MonocL</t>
+  </si>
+  <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>UncoverCue.jpg</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,24 +579,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C156" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -618,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -642,7 +651,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -666,7 +675,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -690,7 +699,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -714,7 +723,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -738,7 +747,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -762,7 +771,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -786,7 +795,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -810,7 +819,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -834,7 +843,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -858,7 +867,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -882,7 +891,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -906,7 +915,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -930,7 +939,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -954,7 +963,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -978,7 +987,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1002,7 +1011,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1026,7 +1035,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1050,7 +1059,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1074,7 +1083,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1098,7 +1107,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1122,7 +1131,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1146,7 +1155,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1170,7 +1179,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1194,7 +1203,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1228,7 +1237,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1251,7 +1260,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1274,7 +1283,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1297,7 +1306,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1320,7 +1329,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1343,7 +1352,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1366,7 +1375,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1389,7 +1398,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1412,7 +1421,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1435,7 +1444,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1458,7 +1467,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1481,7 +1490,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1504,7 +1513,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1527,7 +1536,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1550,7 +1559,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1573,7 +1582,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1596,7 +1605,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1619,7 +1628,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1642,7 +1651,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1665,7 +1674,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1688,7 +1697,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1711,7 +1720,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1734,7 +1743,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1757,7 +1766,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1868,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1908,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2048,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2088,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2108,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2148,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2248,35 +2257,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C78" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2287,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2304,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2321,13 +2333,13 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2338,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2355,13 +2367,13 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2372,13 +2384,13 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2389,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2406,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2423,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2440,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2457,13 +2469,13 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2477,10 +2489,10 @@
         <v>11</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2491,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2508,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2525,13 +2537,13 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2542,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2559,13 +2571,13 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2576,13 +2588,13 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2593,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2610,13 +2622,13 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2627,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2644,13 +2656,13 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2661,64 +2673,61 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C104" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>5</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2729,16 +2738,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2749,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2769,16 +2778,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2789,16 +2798,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2809,16 +2818,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2829,16 +2838,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2849,16 +2858,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2869,16 +2878,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2889,16 +2898,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2909,16 +2918,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2929,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2949,16 +2958,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2969,16 +2978,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2989,16 +2998,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3009,16 +3018,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3029,16 +3038,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3049,16 +3058,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3069,16 +3078,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3089,16 +3098,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3109,16 +3118,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3129,16 +3138,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3149,81 +3158,87 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="3">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C130" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>6</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" s="3">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>6</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C129" s="3">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>6</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" s="3">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3234,14 +3249,14 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3252,14 +3267,14 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3270,14 +3285,14 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3288,14 +3303,14 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3306,14 +3321,14 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3324,14 +3339,14 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3342,14 +3357,14 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3360,14 +3375,14 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3378,14 +3393,14 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3396,14 +3411,14 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3414,14 +3429,14 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3432,14 +3447,14 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3450,14 +3465,14 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3468,14 +3483,14 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3486,14 +3501,14 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3504,14 +3519,14 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3522,14 +3537,14 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3540,14 +3555,14 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3558,14 +3573,14 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3576,14 +3591,14 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3594,527 +3609,530 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B152" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="3">
+        <v>5</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="15">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>18</v>
@@ -4123,67 +4141,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E179" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>8</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C181" s="3">
-        <v>1</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F181" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4194,16 +4203,16 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4214,16 +4223,16 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4234,16 +4243,16 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4254,16 +4263,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4274,16 +4283,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F186" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4294,16 +4303,16 @@
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4314,16 +4323,16 @@
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4334,16 +4343,16 @@
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4354,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4374,16 +4383,16 @@
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4394,16 +4403,16 @@
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4414,16 +4423,16 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4434,16 +4443,16 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4454,16 +4463,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4474,16 +4483,16 @@
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4494,16 +4503,16 @@
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4514,16 +4523,16 @@
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4534,16 +4543,16 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4554,16 +4563,16 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4574,23 +4583,103 @@
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C206" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11854ACE-4C8A-442D-B763-8C25F742480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07691567-0DB5-43CB-B9E7-B39BD5CFEA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C156" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,6 +2301,9 @@
       <c r="D79" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E79" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
@@ -2318,6 +2321,9 @@
       <c r="D80" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
@@ -2335,6 +2341,9 @@
       <c r="D81" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E81" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
@@ -2352,6 +2361,9 @@
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
@@ -2369,6 +2381,9 @@
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E83" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
@@ -2386,6 +2401,9 @@
       <c r="D84" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
@@ -2403,6 +2421,9 @@
       <c r="D85" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
@@ -2420,6 +2441,9 @@
       <c r="D86" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
@@ -2437,6 +2461,9 @@
       <c r="D87" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E87" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
@@ -2454,6 +2481,9 @@
       <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E88" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
@@ -2471,6 +2501,9 @@
       <c r="D89" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E89" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
@@ -2488,6 +2521,9 @@
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
@@ -2505,6 +2541,9 @@
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
@@ -2522,6 +2561,9 @@
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
@@ -2539,6 +2581,9 @@
       <c r="D93" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E93" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
@@ -2556,6 +2601,9 @@
       <c r="D94" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E94" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
@@ -2573,6 +2621,9 @@
       <c r="D95" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
@@ -2590,6 +2641,9 @@
       <c r="D96" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E96" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
@@ -2607,6 +2661,9 @@
       <c r="D97" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
@@ -2624,6 +2681,9 @@
       <c r="D98" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E98" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
@@ -2641,6 +2701,9 @@
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
@@ -2658,6 +2721,9 @@
       <c r="D100" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
@@ -2675,6 +2741,9 @@
       <c r="D101" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
@@ -2692,6 +2761,9 @@
       <c r="D102" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
@@ -3251,7 +3323,9 @@
       <c r="D131" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
@@ -3269,7 +3343,9 @@
       <c r="D132" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
@@ -3287,7 +3363,9 @@
       <c r="D133" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
@@ -3305,7 +3383,9 @@
       <c r="D134" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
@@ -3323,7 +3403,9 @@
       <c r="D135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
@@ -3341,7 +3423,9 @@
       <c r="D136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
@@ -3359,7 +3443,9 @@
       <c r="D137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
@@ -3377,7 +3463,9 @@
       <c r="D138" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
@@ -3395,7 +3483,9 @@
       <c r="D139" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
@@ -3413,7 +3503,9 @@
       <c r="D140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
@@ -3431,7 +3523,9 @@
       <c r="D141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
@@ -3449,7 +3543,9 @@
       <c r="D142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
@@ -3467,7 +3563,9 @@
       <c r="D143" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
@@ -3485,7 +3583,9 @@
       <c r="D144" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
@@ -3503,7 +3603,9 @@
       <c r="D145" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
@@ -3521,7 +3623,9 @@
       <c r="D146" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
@@ -3539,7 +3643,9 @@
       <c r="D147" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
@@ -3557,7 +3663,9 @@
       <c r="D148" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F148" t="b">
         <v>1</v>
       </c>
@@ -3575,7 +3683,9 @@
       <c r="D149" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
@@ -3593,7 +3703,9 @@
       <c r="D150" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
@@ -3611,7 +3723,9 @@
       <c r="D151" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
@@ -3629,7 +3743,9 @@
       <c r="D152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
@@ -3647,7 +3763,9 @@
       <c r="D153" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
@@ -3665,7 +3783,9 @@
       <c r="D154" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07691567-0DB5-43CB-B9E7-B39BD5CFEA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,25 +577,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79:E102"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="F177" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -627,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -638,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -651,7 +650,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -662,20 +661,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -686,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -699,7 +698,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -710,20 +709,20 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -734,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -747,7 +746,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -758,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -771,7 +770,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -782,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -795,7 +794,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -806,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -819,7 +818,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -830,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -843,7 +842,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -854,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -867,7 +866,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -878,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -891,7 +890,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -902,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -915,7 +914,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -926,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -939,7 +938,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -950,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -963,7 +962,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -974,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -987,7 +986,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -998,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1011,7 +1010,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1022,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1035,7 +1034,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1046,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1059,7 +1058,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1070,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1083,7 +1082,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1094,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1107,7 +1106,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1118,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1131,7 +1130,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1142,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1155,7 +1154,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1179,7 +1178,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1190,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1203,7 +1202,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1225,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1237,7 +1236,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1248,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1260,7 +1259,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1271,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1283,7 +1282,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1294,19 +1293,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1317,10 +1316,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1329,7 +1328,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1352,7 +1351,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1363,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1375,7 +1374,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1386,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1398,7 +1397,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1409,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1421,7 +1420,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1432,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1444,7 +1443,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1455,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1467,7 +1466,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1478,10 +1477,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1490,7 +1489,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1501,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1513,7 +1512,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1524,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1536,7 +1535,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1547,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1559,7 +1558,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1570,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1582,7 +1581,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1593,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1605,7 +1604,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1616,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1628,7 +1627,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1639,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1651,7 +1650,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1662,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1674,7 +1673,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1685,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1697,7 +1696,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1708,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1720,7 +1719,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1731,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1743,7 +1742,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1754,19 +1753,19 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1788,16 +1787,16 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1808,16 +1807,16 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1828,16 +1827,16 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1848,16 +1847,16 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1868,16 +1867,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1888,16 +1887,16 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1928,16 +1927,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1948,16 +1947,16 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1968,16 +1967,16 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1988,16 +1987,16 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2008,16 +2007,16 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2028,16 +2027,16 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2068,16 +2067,16 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2088,16 +2087,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2108,16 +2107,16 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2128,16 +2127,16 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2148,16 +2147,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2168,16 +2167,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2188,16 +2187,16 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2208,16 +2207,16 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2228,16 +2227,16 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2248,16 +2247,16 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2299,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2319,16 +2318,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2339,16 +2338,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2359,16 +2358,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2379,16 +2378,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2399,16 +2398,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2419,16 +2418,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2439,16 +2438,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2459,16 +2458,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2479,16 +2478,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2505,10 +2504,10 @@
         <v>25</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2519,16 +2518,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2539,16 +2538,16 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2559,16 +2558,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2579,16 +2578,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2599,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2619,16 +2618,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2639,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2659,16 +2658,16 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2699,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2719,16 +2718,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2739,16 +2738,16 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2759,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2810,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2830,16 +2829,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2850,16 +2849,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2870,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2910,16 +2909,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2930,16 +2929,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2950,16 +2949,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2970,16 +2969,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2990,16 +2989,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3010,16 +3009,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3030,16 +3029,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3050,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3070,16 +3069,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3090,16 +3089,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3110,16 +3109,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3130,16 +3129,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3150,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3170,16 +3169,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3190,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3210,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3230,16 +3229,16 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3250,16 +3249,16 @@
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3270,16 +3269,16 @@
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3290,16 +3289,16 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3321,16 +3320,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3341,16 +3340,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3361,16 +3360,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3381,16 +3380,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3401,16 +3400,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3421,16 +3420,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3441,16 +3440,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3461,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3481,16 +3480,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3501,16 +3500,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3521,16 +3520,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3541,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3581,16 +3580,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3601,16 +3600,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3621,16 +3620,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3641,16 +3640,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3661,16 +3660,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3681,16 +3680,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3701,16 +3700,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3721,16 +3720,16 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3741,16 +3740,16 @@
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3761,16 +3760,16 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6</v>
       </c>
@@ -3781,16 +3780,16 @@
         <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3832,236 +3831,236 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7</v>
       </c>
@@ -4072,16 +4071,16 @@
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -4092,16 +4091,16 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7</v>
       </c>
@@ -4132,16 +4131,16 @@
         <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7</v>
       </c>
@@ -4152,16 +4151,16 @@
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7</v>
       </c>
@@ -4172,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
@@ -4192,16 +4191,16 @@
         <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>7</v>
       </c>
@@ -4232,16 +4231,16 @@
         <v>1</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7</v>
       </c>
@@ -4252,16 +4251,16 @@
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7</v>
       </c>
@@ -4272,16 +4271,16 @@
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>7</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4323,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4343,16 +4342,16 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4363,16 +4362,16 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4383,16 +4382,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4403,16 +4402,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4423,16 +4422,16 @@
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4443,16 +4442,16 @@
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4463,16 +4462,16 @@
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4483,16 +4482,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F190" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4523,16 +4522,16 @@
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4543,16 +4542,16 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4563,16 +4562,16 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4583,16 +4582,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4603,16 +4602,16 @@
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4623,16 +4622,16 @@
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4643,16 +4642,16 @@
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4663,16 +4662,16 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4683,16 +4682,16 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4703,16 +4702,16 @@
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -4723,16 +4722,16 @@
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>8</v>
       </c>
@@ -4743,16 +4742,16 @@
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8</v>
       </c>
@@ -4763,16 +4762,16 @@
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>8</v>
       </c>
@@ -4783,16 +4782,16 @@
         <v>1</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F177" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>

--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstubbs5\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,147 +59,9 @@
     <t>2D</t>
   </si>
   <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
     <t>Pseudo</t>
   </si>
   <si>
@@ -209,10 +71,148 @@
     <t>CUE</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
-    <t>CoverCue.jpg</t>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -925,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1045,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1264,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1287,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1310,16 +1310,16 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1356,16 +1356,16 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1402,16 +1402,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1425,16 +1425,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1471,16 +1471,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1540,16 +1540,16 @@
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1632,16 +1632,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1678,16 +1678,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1724,16 +1724,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1781,16 +1781,16 @@
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -1801,16 +1801,16 @@
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -2181,16 +2181,16 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -2261,16 +2261,16 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2312,16 +2312,16 @@
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2352,16 +2352,16 @@
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2392,16 +2392,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2412,16 +2412,16 @@
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2452,16 +2452,16 @@
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -2472,16 +2472,16 @@
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -2492,16 +2492,16 @@
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
@@ -2512,16 +2512,16 @@
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -2572,16 +2572,16 @@
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -2592,16 +2592,16 @@
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -2632,16 +2632,16 @@
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -2652,16 +2652,16 @@
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -2672,16 +2672,16 @@
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -2732,16 +2732,16 @@
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -2752,16 +2752,16 @@
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -2823,16 +2823,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -2863,16 +2863,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -2903,16 +2903,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -2943,16 +2943,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -2963,16 +2963,16 @@
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -2983,16 +2983,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
@@ -3003,16 +3003,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -3023,16 +3023,16 @@
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -3063,16 +3063,16 @@
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -3103,16 +3103,16 @@
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -3123,16 +3123,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -3143,16 +3143,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -3163,16 +3163,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -3183,16 +3183,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -3203,16 +3203,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -3223,16 +3223,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -3283,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C129" s="3">
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -3334,16 +3334,16 @@
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -3374,16 +3374,16 @@
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -3394,16 +3394,16 @@
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -3414,16 +3414,16 @@
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
@@ -3454,16 +3454,16 @@
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -3494,16 +3494,16 @@
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -3534,16 +3534,16 @@
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -3574,16 +3574,16 @@
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -3614,16 +3614,16 @@
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -3634,16 +3634,16 @@
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
@@ -3654,16 +3654,16 @@
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -3674,16 +3674,16 @@
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -3694,16 +3694,16 @@
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -3734,16 +3734,16 @@
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -3774,16 +3774,16 @@
         <v>6</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C155" s="3">
         <v>5</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -3851,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -3891,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -3911,10 +3911,10 @@
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -3931,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -4051,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
@@ -4091,10 +4091,10 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
@@ -4151,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F173" t="b">
         <v>1</v>
@@ -4171,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -4211,10 +4211,10 @@
         <v>1</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -4231,10 +4231,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -4251,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -4271,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
@@ -4291,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -4316,16 +4316,16 @@
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
@@ -4356,16 +4356,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -4376,16 +4376,16 @@
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -4396,16 +4396,16 @@
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C186" s="3">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E186" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -4416,16 +4416,16 @@
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -4436,16 +4436,16 @@
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
@@ -4456,16 +4456,16 @@
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -4476,16 +4476,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -4496,16 +4496,16 @@
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -4516,16 +4516,16 @@
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F192" t="b">
         <v>1</v>
@@ -4536,16 +4536,16 @@
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -4556,16 +4556,16 @@
         <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -4576,16 +4576,16 @@
         <v>8</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C195" s="3">
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -4596,16 +4596,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C196" s="3">
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -4616,16 +4616,16 @@
         <v>8</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
@@ -4636,16 +4636,16 @@
         <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -4656,16 +4656,16 @@
         <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -4676,16 +4676,16 @@
         <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>8</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -4716,16 +4716,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -4736,16 +4736,16 @@
         <v>8</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C203" s="3">
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -4756,16 +4756,16 @@
         <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -4776,16 +4776,16 @@
         <v>8</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C205" s="3">
         <v>1</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>

--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstubbs5\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_7EEB5113F4EFF3B5A4DE7A538B4B73F890FB31BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B99670-1B4C-43F0-A352-D1E750149DD8}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,167 +60,167 @@
     <t>2D</t>
   </si>
   <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
     <t>3D</t>
   </si>
   <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
     <t>Pseudo</t>
   </si>
   <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
     <t>MonocL</t>
   </si>
   <si>
-    <t>CUE</t>
-  </si>
-  <si>
-    <t>Face7_L.png</t>
-  </si>
-  <si>
-    <t>Face14_L.png</t>
-  </si>
-  <si>
-    <t>Face4_L.png</t>
-  </si>
-  <si>
-    <t>Face17_L.png</t>
-  </si>
-  <si>
-    <t>Face13_L.png</t>
-  </si>
-  <si>
-    <t>Face22_L.png</t>
-  </si>
-  <si>
-    <t>Face8_L.png</t>
-  </si>
-  <si>
-    <t>Face11_L.png</t>
-  </si>
-  <si>
-    <t>Face19_L.png</t>
-  </si>
-  <si>
-    <t>Face6_L.png</t>
-  </si>
-  <si>
-    <t>Face12_L.png</t>
-  </si>
-  <si>
-    <t>Face18_L.png</t>
-  </si>
-  <si>
-    <t>Face3_L.png</t>
-  </si>
-  <si>
-    <t>Face9_L.png</t>
-  </si>
-  <si>
-    <t>Face2_L.png</t>
-  </si>
-  <si>
-    <t>Face15_L.png</t>
-  </si>
-  <si>
-    <t>Face10_L.png</t>
-  </si>
-  <si>
-    <t>Face20_L.png</t>
-  </si>
-  <si>
-    <t>Face16_L.png</t>
-  </si>
-  <si>
-    <t>Face5_L.png</t>
-  </si>
-  <si>
-    <t>Face1_L.png</t>
-  </si>
-  <si>
-    <t>Face21_L.png</t>
-  </si>
-  <si>
-    <t>Face23_L.png</t>
-  </si>
-  <si>
-    <t>Face3_R.png</t>
-  </si>
-  <si>
-    <t>Face4_R.png</t>
-  </si>
-  <si>
-    <t>Face16_R.png</t>
-  </si>
-  <si>
-    <t>Face12_R.png</t>
-  </si>
-  <si>
-    <t>Face5_R.png</t>
-  </si>
-  <si>
-    <t>Face6_R.png</t>
-  </si>
-  <si>
-    <t>Face7_R.png</t>
-  </si>
-  <si>
-    <t>Face19_R.png</t>
-  </si>
-  <si>
-    <t>Face1_R.png</t>
-  </si>
-  <si>
-    <t>Face2_R.png</t>
-  </si>
-  <si>
-    <t>Face15_R.png</t>
-  </si>
-  <si>
-    <t>Face17_R.png</t>
-  </si>
-  <si>
-    <t>Face14_R.png</t>
-  </si>
-  <si>
-    <t>Face23_R.png</t>
-  </si>
-  <si>
-    <t>Face22_R.png</t>
-  </si>
-  <si>
-    <t>Face21_R.png</t>
-  </si>
-  <si>
-    <t>Face9_R.png</t>
-  </si>
-  <si>
-    <t>Face10_R.png</t>
-  </si>
-  <si>
-    <t>Face13_R.png</t>
-  </si>
-  <si>
-    <t>Face8_R.png</t>
-  </si>
-  <si>
-    <t>Face18_R.png</t>
-  </si>
-  <si>
-    <t>Face20_R.png</t>
-  </si>
-  <si>
-    <t>Face11_R.png</t>
-  </si>
-  <si>
-    <t>CoverCue.png</t>
-  </si>
-  <si>
-    <t>UncoverCue.png</t>
+    <t>UncoverCue.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L206"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -595,7 +596,7 @@
     <col min="7" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -626,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -637,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -650,7 +651,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -661,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -674,7 +675,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -685,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -698,7 +699,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -709,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -722,7 +723,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -733,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -746,7 +747,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1</v>
       </c>
@@ -757,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -770,7 +771,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1</v>
       </c>
@@ -781,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -794,7 +795,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1</v>
       </c>
@@ -805,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -818,7 +819,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1</v>
       </c>
@@ -829,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -842,7 +843,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -853,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -866,7 +867,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1</v>
       </c>
@@ -877,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -890,7 +891,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -901,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -914,7 +915,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1</v>
       </c>
@@ -925,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -938,7 +939,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1</v>
       </c>
@@ -949,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -962,7 +963,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1</v>
       </c>
@@ -973,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -986,7 +987,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1</v>
       </c>
@@ -997,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1010,7 +1011,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1021,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1034,7 +1035,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1045,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1058,7 +1059,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1069,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1082,7 +1083,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1093,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1106,7 +1107,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1117,10 +1118,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1130,7 +1131,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1141,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1154,7 +1155,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1165,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1178,7 +1179,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1189,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1202,7 +1203,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1213,21 +1214,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1236,21 +1237,21 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1259,21 +1260,21 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1282,21 +1283,21 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1305,21 +1306,21 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1328,21 +1329,21 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1351,21 +1352,21 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1374,21 +1375,21 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1397,21 +1398,21 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1420,21 +1421,21 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1443,21 +1444,21 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1466,21 +1467,21 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1489,21 +1490,21 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1512,21 +1513,21 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1535,21 +1536,21 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1558,21 +1559,21 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1581,21 +1582,21 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1604,21 +1605,21 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1627,21 +1628,21 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1650,21 +1651,21 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1673,21 +1674,21 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1696,21 +1697,21 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1719,21 +1720,21 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1742,21 +1743,21 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1765,7 +1766,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1776,507 +1777,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2287,492 +2288,492 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="3">
-        <v>1</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
@@ -2787,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2798,507 +2799,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="3">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C129" s="3">
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>0</v>
       </c>
@@ -3309,492 +3310,492 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="3">
-        <v>1</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>6</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C155" s="3">
         <v>5</v>
@@ -3809,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>0</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3831,476 +3832,476 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>7</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4311,487 +4312,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C188" s="3">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F192" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>8</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C195" s="3">
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>8</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C196" s="3">
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>8</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>8</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>8</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>8</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C203" s="3">
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>8</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C205" s="3">
         <v>1</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7EEB5113F4EFF3B5A4DE7A538B4B73F890FB31BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B99670-1B4C-43F0-A352-D1E750149DD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBA3DA-C5AC-4E94-AE46-58C0959A590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,167 +60,167 @@
     <t>2D</t>
   </si>
   <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
     <t>Pseudo</t>
   </si>
   <si>
     <t>CUE</t>
   </si>
   <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
     <t>MonocL</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,22 +581,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -651,7 +651,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -662,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -675,7 +675,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -699,7 +699,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -710,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -723,7 +723,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -758,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -771,7 +771,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -782,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -795,7 +795,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -806,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -819,7 +819,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -843,7 +843,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -854,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -867,7 +867,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -878,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -891,7 +891,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -902,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -915,7 +915,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -926,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -939,7 +939,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -950,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -963,7 +963,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -974,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -987,7 +987,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -998,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1011,7 +1011,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1022,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1035,7 +1035,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1059,7 +1059,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1070,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1083,7 +1083,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1094,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1107,7 +1107,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1118,10 +1118,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1131,7 +1131,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1142,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1155,7 +1155,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1179,7 +1179,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1203,7 +1203,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1214,21 +1214,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1237,21 +1237,21 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1260,21 +1260,21 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1283,21 +1283,21 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1306,21 +1306,21 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1329,21 +1329,21 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1352,21 +1352,21 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1375,21 +1375,21 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1398,21 +1398,21 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1421,21 +1421,21 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1444,21 +1444,21 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1467,21 +1467,21 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1490,21 +1490,21 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1513,21 +1513,21 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1536,21 +1536,21 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1559,21 +1559,21 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1582,21 +1582,21 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1605,21 +1605,21 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1628,21 +1628,21 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1651,21 +1651,21 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1674,21 +1674,21 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1697,21 +1697,21 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1720,21 +1720,21 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1743,21 +1743,21 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1766,7 +1766,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1777,507 +1777,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2288,492 +2288,492 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2799,507 +2799,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C129" s="3">
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0</v>
       </c>
@@ -3310,492 +3310,492 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C155" s="3">
         <v>5</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3832,16 +3832,16 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3852,456 +3852,456 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>7</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4312,487 +4312,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C182" s="3">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="E186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>8</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F182" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>8</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C183" s="3">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="E190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F183" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>8</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C184" s="3">
-        <v>1</v>
-      </c>
-      <c r="D184" s="1" t="s">
+      <c r="E191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>8</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C185" s="3">
-        <v>1</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F185" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>8</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C186" s="3">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>8</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C187" s="3">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>8</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>8</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>8</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F191" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>8</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F192" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>8</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C193" s="3">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>8</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C194" s="3">
-        <v>1</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>8</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C198" s="3">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C200" s="3">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>8</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C203" s="3">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>8</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>8</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C205" s="3">
-        <v>1</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
